--- a/接口文档/店铺api/店铺静态化接口.xlsx
+++ b/接口文档/店铺api/店铺静态化接口.xlsx
@@ -338,10 +338,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/data/nginx_home/html/static/store</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>店铺I</t>
     </r>
@@ -355,6 +351,10 @@
       </rPr>
       <t>D为文件名</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.131/static/store/1.json</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +410,7 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -648,6 +648,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,12 +692,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1050,186 +1050,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1321,37 +1321,37 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1368,40 +1368,40 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
       <c r="D5" s="14"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="15"/>
       <c r="C8" s="2"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="B9" s="35" t="s">
-        <v>83</v>
+      <c r="B9" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="16"/>
@@ -1409,12 +1409,12 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6"/>

--- a/接口文档/店铺api/店铺静态化接口.xlsx
+++ b/接口文档/店铺api/店铺静态化接口.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21495" windowHeight="10320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="目录" sheetId="2" r:id="rId2"/>
-    <sheet name="店铺静态化接口" sheetId="5" r:id="rId3"/>
+    <sheet name="店铺静态化文件" sheetId="5" r:id="rId3"/>
+    <sheet name="店铺静态化接口 " sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>序号</t>
   </si>
@@ -355,6 +356,13 @@
   </si>
   <si>
     <t>http://192.168.1.131/static/store/1.json</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺静态化文件</t>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/seller_edit/v1/staticStore</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1245,7 +1253,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1274,7 +1282,9 @@
       <c r="A3" s="10">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="18" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10">
@@ -1303,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -1913,4 +1923,328 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="29"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B9" s="22"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="2"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="2"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="2"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="2"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="2"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="2"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="2"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="2"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="9"/>
+      <c r="C38" s="2"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="9"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>